--- a/client/word/Assets/Config/config.xlsx
+++ b/client/word/Assets/Config/config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,22 +37,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>what can I do for you,sir?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>and eggs?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Year,bacon and eggs with buttered toast,I like my bacon very crisp.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>How do you want your eggs?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>role_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,26 +49,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>what have you got this [morning]?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Fruit] Juice,[cakes] and [refreshments], and everything.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I'd like to have a glass of [tomato] juice,please.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No,that's [enough],Thank you.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anything more,sir?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>isLeft</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,18 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fried,please.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes ,a dish of cream of [wheat].</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Any [ceral],sir?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -134,6 +90,78 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]what can I do for you,sir?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]and eggs?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]How do you want your eggs?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]Fried,please.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]Anything more,sir?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]what have you got this {morning}?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]Fruit Juice,cakes and {refreshments}, and everything.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]I'd like to have a glass of {tomato} juice,please.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]Any {ceral},sir?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]Yes ,a dish of cream of {wheat}.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[000000FF]No,that's {enough},Thank you.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,21 +490,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="5" width="10.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="62.625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="3" max="6" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="62.625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,201 +515,279 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10000</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10001</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10002</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10003</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10004</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10005</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10006</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10007</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10008</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10009</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10010</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10011</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
